--- a/output.xlsx
+++ b/output.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3200 3600 2x8GB" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4000 4400 4600 2x8GB" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -560,7 +561,7 @@
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>2022-06-13</t>
+          <t>2022-06-16</t>
         </is>
       </c>
     </row>
@@ -1366,7 +1367,7 @@
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>$149.99</t>
+          <t>$97.40</t>
         </is>
       </c>
     </row>
@@ -2979,7 +2980,7 @@
       </c>
       <c r="AP18" t="inlineStr">
         <is>
-          <t>USD81.72USD81.72</t>
+          <t>USD81.36USD81.36</t>
         </is>
       </c>
     </row>
@@ -3113,7 +3114,7 @@
       </c>
       <c r="AP19" t="inlineStr">
         <is>
-          <t>USD78.57USD78.57</t>
+          <t>USD78.22USD78.22</t>
         </is>
       </c>
     </row>
@@ -4172,7 +4173,7 @@
       </c>
       <c r="AP25" t="inlineStr">
         <is>
-          <t>USD91.16USD91.16</t>
+          <t>USD90.76USD90.76</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5659,7 @@
       </c>
       <c r="AP36" t="inlineStr">
         <is>
-          <t>$72.99$72.99</t>
+          <t>$71.99$71.99</t>
         </is>
       </c>
     </row>
@@ -6548,7 +6549,7 @@
       </c>
       <c r="AP42" t="inlineStr">
         <is>
-          <t>USD78.57USD78.57</t>
+          <t>USD78.22USD78.22</t>
         </is>
       </c>
     </row>
@@ -6732,7 +6733,7 @@
       </c>
       <c r="AP43" t="inlineStr">
         <is>
-          <t>€ 63,90</t>
+          <t>€ 64,90</t>
         </is>
       </c>
     </row>
@@ -7372,7 +7373,7 @@
       </c>
       <c r="AP47" t="inlineStr">
         <is>
-          <t>€74.96€74.96</t>
+          <t>USD145.17USD145.17</t>
         </is>
       </c>
     </row>
@@ -7557,6 +7558,4965 @@
       <c r="AP48" t="inlineStr">
         <is>
           <t>€ 64,90</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AP32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>2022-06-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>DDR4 4000 2x8GB
+RGB</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>On line</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>US Online Price</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>44627</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>44628</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>44629</v>
+      </c>
+      <c r="J2" s="2" t="n">
+        <v>44630</v>
+      </c>
+      <c r="K2" s="2" t="n">
+        <v>44631</v>
+      </c>
+      <c r="L2" s="2" t="n">
+        <v>44634</v>
+      </c>
+      <c r="M2" s="2" t="n">
+        <v>44635</v>
+      </c>
+      <c r="N2" s="2" t="n">
+        <v>44636</v>
+      </c>
+      <c r="O2" s="2" t="n">
+        <v>44637</v>
+      </c>
+      <c r="P2" s="2" t="n">
+        <v>44638</v>
+      </c>
+      <c r="Q2" s="2" t="n">
+        <v>44641</v>
+      </c>
+      <c r="R2" s="2" t="n">
+        <v>44642</v>
+      </c>
+      <c r="S2" s="2" t="n">
+        <v>44643</v>
+      </c>
+      <c r="T2" s="2" t="n">
+        <v>44644</v>
+      </c>
+      <c r="U2" s="2" t="n">
+        <v>44645</v>
+      </c>
+      <c r="V2" s="2" t="n">
+        <v>44649</v>
+      </c>
+      <c r="W2" s="2" t="n">
+        <v>44650</v>
+      </c>
+      <c r="X2" s="2" t="n">
+        <v>44652</v>
+      </c>
+      <c r="Y2" s="2" t="n">
+        <v>44657</v>
+      </c>
+      <c r="Z2" s="2" t="n">
+        <v>44658</v>
+      </c>
+      <c r="AA2" s="2" t="n">
+        <v>44659</v>
+      </c>
+      <c r="AB2" s="2" t="n">
+        <v>44662</v>
+      </c>
+      <c r="AC2" s="2" t="n">
+        <v>44663</v>
+      </c>
+      <c r="AD2" s="2" t="n">
+        <v>44664</v>
+      </c>
+      <c r="AE2" s="2" t="n">
+        <v>44665</v>
+      </c>
+      <c r="AF2" s="2" t="n">
+        <v>44666</v>
+      </c>
+      <c r="AG2" s="2" t="n">
+        <v>44670</v>
+      </c>
+      <c r="AH2" s="2" t="n">
+        <v>44671</v>
+      </c>
+      <c r="AI2" s="2" t="n">
+        <v>44672</v>
+      </c>
+      <c r="AJ2" s="2" t="n">
+        <v>44673</v>
+      </c>
+      <c r="AK2" s="2" t="n">
+        <v>44676</v>
+      </c>
+      <c r="AL2" s="2" t="n">
+        <v>44677</v>
+      </c>
+      <c r="AM2" s="2" t="n">
+        <v>44678</v>
+      </c>
+      <c r="AN2" s="2" t="n">
+        <v>44679</v>
+      </c>
+      <c r="AO2" s="2" t="n">
+        <v>44680</v>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>此為空值</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Thermaltake-TOUGHRAM-Motherboard-Syncable-R016D408GX2-4000C19A/dp/B08XWGTDDH/ref=sr_1_3?crid=1WCLJPD9DV8ER&amp;dchild=1&amp;keywords=toughram+xg+rgb&amp;qid=1615957025&amp;sprefix=toughram+XG%2Caps%2C347&amp;sr=8-3</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Amanzon</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thermaltake TOUGHRAM XG </t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>19</v>
+      </c>
+      <c r="G3" t="n">
+        <v>175.99</v>
+      </c>
+      <c r="H3" t="n">
+        <v>175.99</v>
+      </c>
+      <c r="I3" t="n">
+        <v>175.99</v>
+      </c>
+      <c r="J3" t="n">
+        <v>175.99</v>
+      </c>
+      <c r="K3" t="n">
+        <v>175.99</v>
+      </c>
+      <c r="L3" t="n">
+        <v>175.99</v>
+      </c>
+      <c r="M3" t="n">
+        <v>175.99</v>
+      </c>
+      <c r="N3" t="n">
+        <v>175.99</v>
+      </c>
+      <c r="O3" t="n">
+        <v>175.99</v>
+      </c>
+      <c r="P3" t="n">
+        <v>175.99</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>175.99</v>
+      </c>
+      <c r="R3" t="n">
+        <v>175.99</v>
+      </c>
+      <c r="S3" t="n">
+        <v>175.99</v>
+      </c>
+      <c r="T3" t="n">
+        <v>175.99</v>
+      </c>
+      <c r="U3" t="n">
+        <v>175.99</v>
+      </c>
+      <c r="V3" t="n">
+        <v>175.99</v>
+      </c>
+      <c r="W3" t="n">
+        <v>175.99</v>
+      </c>
+      <c r="X3" t="n">
+        <v>175.99</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>175.99</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>175.99</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>175.99</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>175.99</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>175.99</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>175.99</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>175.99</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>175.99</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>175.99</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>175.99</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>175.99</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>175.99</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>175.99</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>175.99</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>175.99</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>175.99</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>175.99</v>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>$175.99$175.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/dp/B0815TBP1Z/ref=twister_B084RCGNWM?_encoding=UTF8&amp;psc=1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Amanzon</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Thermaltake TOUGHRAM RGB</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>19</v>
+      </c>
+      <c r="G4" t="n">
+        <v>159.99</v>
+      </c>
+      <c r="H4" t="n">
+        <v>159.99</v>
+      </c>
+      <c r="I4" t="n">
+        <v>159.99</v>
+      </c>
+      <c r="J4" t="n">
+        <v>159.99</v>
+      </c>
+      <c r="K4" t="n">
+        <v>159.99</v>
+      </c>
+      <c r="L4" t="n">
+        <v>159.99</v>
+      </c>
+      <c r="M4" t="n">
+        <v>159.99</v>
+      </c>
+      <c r="N4" t="n">
+        <v>159.99</v>
+      </c>
+      <c r="O4" t="n">
+        <v>159.99</v>
+      </c>
+      <c r="P4" t="n">
+        <v>159.99</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>159.99</v>
+      </c>
+      <c r="R4" t="n">
+        <v>159.99</v>
+      </c>
+      <c r="S4" t="n">
+        <v>159.99</v>
+      </c>
+      <c r="T4" t="n">
+        <v>159.99</v>
+      </c>
+      <c r="U4" t="n">
+        <v>159.99</v>
+      </c>
+      <c r="V4" t="n">
+        <v>159.99</v>
+      </c>
+      <c r="W4" t="n">
+        <v>159.99</v>
+      </c>
+      <c r="X4" t="n">
+        <v>159.99</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>159.99</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>159.99</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>159.99</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>159.99</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>159.99</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>159.99</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>159.99</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>159.99</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>159.99</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>159.99</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>159.99</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>159.99</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>159.99</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>159.99</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>159.99</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>159.99</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>159.99</v>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>$159.99$159.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://www.amazon.com/CORSAIR-Vengeance-3200MHz-Desktop-Memory/dp/B07D1TT7RN?ref_=ast_sto_dp&amp;th=1 </t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Amanzon</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Corsair Vengeance Pro RGB</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>19</v>
+      </c>
+      <c r="G5" t="n">
+        <v>127.99</v>
+      </c>
+      <c r="H5" t="n">
+        <v>127.99</v>
+      </c>
+      <c r="I5" t="n">
+        <v>127.99</v>
+      </c>
+      <c r="J5" t="n">
+        <v>127.99</v>
+      </c>
+      <c r="K5" t="n">
+        <v>127.99</v>
+      </c>
+      <c r="L5" t="n">
+        <v>127.99</v>
+      </c>
+      <c r="M5" t="n">
+        <v>127.99</v>
+      </c>
+      <c r="N5" t="n">
+        <v>127.99</v>
+      </c>
+      <c r="O5" t="n">
+        <v>127.99</v>
+      </c>
+      <c r="P5" t="n">
+        <v>127.99</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>127.99</v>
+      </c>
+      <c r="R5" t="n">
+        <v>127.99</v>
+      </c>
+      <c r="S5" t="n">
+        <v>127.99</v>
+      </c>
+      <c r="T5" t="n">
+        <v>127.99</v>
+      </c>
+      <c r="U5" t="n">
+        <v>127.99</v>
+      </c>
+      <c r="V5" t="n">
+        <v>127.99</v>
+      </c>
+      <c r="W5" t="n">
+        <v>127.99</v>
+      </c>
+      <c r="X5" t="n">
+        <v>125.99</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>131.99</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>131.99</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>125.99</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>125.99</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>125.99</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>132.99</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>132.99</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>132.99</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>132.99</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>132.99</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>125.99</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>125.99</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>127.99</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>127.99</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>124.99</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>124.99</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>124.99</v>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>$119.99$119.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/corsair-16gb-288-pin-ddr4-sdram/p/N82E16820236529?Description=Corsair%20Dominator%20Platinum%204000&amp;cm_re=Corsair_Dominator%20Platinum%204000-_-20-236-529-_-Product&amp;quicklink=true</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Newegg</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Corsair  Dominator Platinum </t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>19</v>
+      </c>
+      <c r="G6" t="n">
+        <v>199.22</v>
+      </c>
+      <c r="H6" t="n">
+        <v>200.22</v>
+      </c>
+      <c r="I6" t="n">
+        <v>199.22</v>
+      </c>
+      <c r="J6" t="n">
+        <v>199.22</v>
+      </c>
+      <c r="K6" t="n">
+        <v>197.22</v>
+      </c>
+      <c r="L6" t="n">
+        <v>197.22</v>
+      </c>
+      <c r="M6" t="n">
+        <v>197.22</v>
+      </c>
+      <c r="N6" t="n">
+        <v>197.22</v>
+      </c>
+      <c r="O6" t="n">
+        <v>198.22</v>
+      </c>
+      <c r="P6" t="n">
+        <v>198.22</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>197.22</v>
+      </c>
+      <c r="R6" t="n">
+        <v>197.22</v>
+      </c>
+      <c r="S6" t="n">
+        <v>197.22</v>
+      </c>
+      <c r="T6" t="n">
+        <v>198.22</v>
+      </c>
+      <c r="U6" t="n">
+        <v>198.22</v>
+      </c>
+      <c r="V6" t="n">
+        <v>199.22</v>
+      </c>
+      <c r="W6" t="n">
+        <v>199.22</v>
+      </c>
+      <c r="X6" t="n">
+        <v>198.22</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>197.22</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>196.22</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>195.22</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>196.22</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>195.22</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>198.22</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>198.22</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>197.22</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>197.22</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>198.22</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>198.22</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>199.22</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>198.22</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>198.22</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>197.2</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>197.2</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>197.2</v>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>$192.22</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://www.newegg.com/g-skill-16gb-288-pin-ddr4-sdram/p/N82E16820232935?Description=G.SKILL%20Trident%20Z%20Royal%204000&amp;cm_re=G.SKILL_Trident%20Z%20Royal%204000-_-20-232-935-_-Product </t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Newegg</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>G.SKILL Trident Z Royal</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>18</v>
+      </c>
+      <c r="G7" t="n">
+        <v>144.99</v>
+      </c>
+      <c r="H7" t="n">
+        <v>144.99</v>
+      </c>
+      <c r="I7" t="n">
+        <v>144.99</v>
+      </c>
+      <c r="J7" t="n">
+        <v>144.99</v>
+      </c>
+      <c r="K7" t="n">
+        <v>144.99</v>
+      </c>
+      <c r="L7" t="n">
+        <v>144.99</v>
+      </c>
+      <c r="M7" t="n">
+        <v>144.99</v>
+      </c>
+      <c r="N7" t="n">
+        <v>144.99</v>
+      </c>
+      <c r="O7" t="n">
+        <v>144.99</v>
+      </c>
+      <c r="P7" t="n">
+        <v>144.99</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>144.99</v>
+      </c>
+      <c r="R7" t="n">
+        <v>144.99</v>
+      </c>
+      <c r="S7" t="n">
+        <v>144.99</v>
+      </c>
+      <c r="T7" t="n">
+        <v>144.99</v>
+      </c>
+      <c r="U7" t="n">
+        <v>144.99</v>
+      </c>
+      <c r="V7" t="n">
+        <v>144.99</v>
+      </c>
+      <c r="W7" t="n">
+        <v>144.99</v>
+      </c>
+      <c r="X7" t="n">
+        <v>144.99</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>144.99</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>144.99</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>144.99</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>144.99</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>144.99</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>144.99</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>144.99</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>144.99</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>144.99</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>144.99</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>144.99</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>144.99</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>144.99</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>144.99</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>144.99</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>144.99</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>144.99</v>
+      </c>
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t>$144.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>DDR4 4400 2x8GB RGB</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>On line</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>US Online Price</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>44627</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>44628</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>44629</v>
+      </c>
+      <c r="J8" s="2" t="n">
+        <v>44630</v>
+      </c>
+      <c r="K8" s="2" t="n">
+        <v>44631</v>
+      </c>
+      <c r="L8" s="2" t="n">
+        <v>44634</v>
+      </c>
+      <c r="M8" s="2" t="n">
+        <v>44635</v>
+      </c>
+      <c r="N8" s="2" t="n">
+        <v>44636</v>
+      </c>
+      <c r="O8" s="2" t="n">
+        <v>44637</v>
+      </c>
+      <c r="P8" s="2" t="n">
+        <v>44638</v>
+      </c>
+      <c r="Q8" s="2" t="n">
+        <v>44641</v>
+      </c>
+      <c r="R8" s="2" t="n">
+        <v>44642</v>
+      </c>
+      <c r="S8" s="2" t="n">
+        <v>44643</v>
+      </c>
+      <c r="T8" s="2" t="n">
+        <v>44644</v>
+      </c>
+      <c r="U8" s="2" t="n">
+        <v>44645</v>
+      </c>
+      <c r="V8" s="2" t="n">
+        <v>44649</v>
+      </c>
+      <c r="W8" s="2" t="n">
+        <v>44650</v>
+      </c>
+      <c r="X8" s="2" t="n">
+        <v>44652</v>
+      </c>
+      <c r="Y8" s="2" t="n">
+        <v>44657</v>
+      </c>
+      <c r="Z8" s="2" t="n">
+        <v>44658</v>
+      </c>
+      <c r="AA8" s="2" t="n">
+        <v>44659</v>
+      </c>
+      <c r="AB8" s="2" t="n">
+        <v>44662</v>
+      </c>
+      <c r="AC8" s="2" t="n">
+        <v>44663</v>
+      </c>
+      <c r="AD8" s="2" t="n">
+        <v>44664</v>
+      </c>
+      <c r="AE8" s="2" t="n">
+        <v>44665</v>
+      </c>
+      <c r="AF8" s="2" t="n">
+        <v>44666</v>
+      </c>
+      <c r="AG8" s="2" t="n">
+        <v>44670</v>
+      </c>
+      <c r="AH8" s="2" t="n">
+        <v>44671</v>
+      </c>
+      <c r="AI8" s="2" t="n">
+        <v>44672</v>
+      </c>
+      <c r="AJ8" s="2" t="n">
+        <v>44673</v>
+      </c>
+      <c r="AK8" s="2" t="n">
+        <v>44676</v>
+      </c>
+      <c r="AL8" s="2" t="n">
+        <v>44677</v>
+      </c>
+      <c r="AM8" s="2" t="n">
+        <v>44678</v>
+      </c>
+      <c r="AN8" s="2" t="n">
+        <v>44679</v>
+      </c>
+      <c r="AO8" s="2" t="n">
+        <v>44680</v>
+      </c>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>此為空值</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Thermaltake-TOUGHRAM-Motherboard-Syncable-R016D408GX2-4400C19A/dp/B08XWKK7G4/ref=sr_1_5?crid=1WCLJPD9DV8ER&amp;dchild=1&amp;keywords=toughram+xg+rgb&amp;qid=1615957025&amp;sprefix=toughram+XG%2Caps%2C347&amp;sr=8-5</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Amanzon</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Thermaltake TOUGHRAM XG</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>19</v>
+      </c>
+      <c r="G9" t="n">
+        <v>195.01</v>
+      </c>
+      <c r="H9" t="n">
+        <v>192.56</v>
+      </c>
+      <c r="I9" t="n">
+        <v>192.3</v>
+      </c>
+      <c r="J9" t="n">
+        <v>193.07</v>
+      </c>
+      <c r="K9" t="n">
+        <v>195.55</v>
+      </c>
+      <c r="L9" t="n">
+        <v>194.9</v>
+      </c>
+      <c r="M9" t="n">
+        <v>193.38</v>
+      </c>
+      <c r="N9" t="n">
+        <v>193.78</v>
+      </c>
+      <c r="O9" t="n">
+        <v>194.03</v>
+      </c>
+      <c r="P9" t="n">
+        <v>194.03</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>196.69</v>
+      </c>
+      <c r="R9" t="n">
+        <v>195.53</v>
+      </c>
+      <c r="S9" t="n">
+        <v>190.5</v>
+      </c>
+      <c r="T9" t="n">
+        <v>190.91</v>
+      </c>
+      <c r="U9" t="n">
+        <v>190.68</v>
+      </c>
+      <c r="V9" t="n">
+        <v>205.99</v>
+      </c>
+      <c r="W9" t="n">
+        <v>205.99</v>
+      </c>
+      <c r="X9" t="n">
+        <v>205.99</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>205.99</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>205.99</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>205.99</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>205.99</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>205.99</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>205.99</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>205.99</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>205.99</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>205.99</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>205.99</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>205.99</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>205.99</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>205.99</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>205.99</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>205.99</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>205.99</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>205.99</v>
+      </c>
+      <c r="AP9" t="inlineStr">
+        <is>
+          <t>$205.99$205.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://www.amazon.com/dp/B0815V1YWT/ref=twister_B084RCGNWM?_encoding=UTF8&amp;th=1 </t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Amanzon</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Thermaltake TOUGHRAM RGB</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>19</v>
+      </c>
+      <c r="G10" t="n">
+        <v>205.99</v>
+      </c>
+      <c r="H10" t="n">
+        <v>205.99</v>
+      </c>
+      <c r="I10" t="n">
+        <v>205.99</v>
+      </c>
+      <c r="J10" t="n">
+        <v>205.99</v>
+      </c>
+      <c r="K10" t="n">
+        <v>205.99</v>
+      </c>
+      <c r="L10" t="n">
+        <v>205.99</v>
+      </c>
+      <c r="M10" t="n">
+        <v>205.99</v>
+      </c>
+      <c r="N10" t="n">
+        <v>205.99</v>
+      </c>
+      <c r="O10" t="n">
+        <v>205.99</v>
+      </c>
+      <c r="P10" t="n">
+        <v>205.99</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>205.99</v>
+      </c>
+      <c r="R10" t="n">
+        <v>205.99</v>
+      </c>
+      <c r="S10" t="n">
+        <v>205.99</v>
+      </c>
+      <c r="T10" t="n">
+        <v>205.99</v>
+      </c>
+      <c r="U10" t="n">
+        <v>205.99</v>
+      </c>
+      <c r="V10" t="n">
+        <v>205.99</v>
+      </c>
+      <c r="W10" t="n">
+        <v>205.99</v>
+      </c>
+      <c r="X10" t="n">
+        <v>205.99</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>205.99</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>205.99</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>205.99</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>205.99</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>205.99</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>205.99</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>205.99</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>205.99</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>205.99</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>205.99</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>205.99</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>205.99</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>205.99</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>205.99</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>205.99</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>205.99</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>205.99</v>
+      </c>
+      <c r="AP10" t="inlineStr">
+        <is>
+          <t>$205.99$205.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://www.newegg.com/g-skill-16gb-288-pin-ddr4-sdram/p/N82E16820374039?Description=trident%20z&amp;cm_re=trident_z-_-20-374-039-_-Product&amp;quicklink=true </t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Newegg</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>GSKILL Trident Z RGB</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>16</v>
+      </c>
+      <c r="G11" t="n">
+        <v>231.44</v>
+      </c>
+      <c r="H11" t="n">
+        <v>199.99</v>
+      </c>
+      <c r="I11" t="n">
+        <v>199.99</v>
+      </c>
+      <c r="J11" t="n">
+        <v>199.99</v>
+      </c>
+      <c r="K11" t="n">
+        <v>199.99</v>
+      </c>
+      <c r="L11" t="n">
+        <v>199.99</v>
+      </c>
+      <c r="M11" t="n">
+        <v>204.99</v>
+      </c>
+      <c r="N11" t="n">
+        <v>204.99</v>
+      </c>
+      <c r="O11" t="n">
+        <v>204.99</v>
+      </c>
+      <c r="P11" t="n">
+        <v>204.99</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>204.99</v>
+      </c>
+      <c r="R11" t="n">
+        <v>228.35</v>
+      </c>
+      <c r="S11" t="n">
+        <v>204.99</v>
+      </c>
+      <c r="T11" t="n">
+        <v>199.99</v>
+      </c>
+      <c r="U11" t="n">
+        <v>199.99</v>
+      </c>
+      <c r="V11" t="n">
+        <v>199.99</v>
+      </c>
+      <c r="W11" t="n">
+        <v>199.99</v>
+      </c>
+      <c r="X11" t="n">
+        <v>199.99</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>199.99</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>199.99</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>199.99</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>199.99</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>199.99</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>199.99</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>199.99</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>199.99</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>199.99</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>199.99</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>199.99</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>199.99</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>199.99</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>199.99</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>199.99</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>199.99</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>199.99</v>
+      </c>
+      <c r="AP11" t="inlineStr">
+        <is>
+          <t>$199.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://www.newegg.com/g-skill-16gb-288-pin-ddr4-sdram/p/N82E16820232776?Description=G.SKILL%20Trident%20Z%20Royal%204400&amp;cm_re=G.SKILL_Trident%20Z%20Royal%204400-_-9SIA1K6DSR6036-_-Product&amp;quicklink=true </t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Newegg</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>G.SKILL Trident Z Royal</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>18</v>
+      </c>
+      <c r="G12" t="n">
+        <v>259.99</v>
+      </c>
+      <c r="H12" t="n">
+        <v>259.99</v>
+      </c>
+      <c r="I12" t="n">
+        <v>259.99</v>
+      </c>
+      <c r="J12" t="n">
+        <v>259.99</v>
+      </c>
+      <c r="K12" t="n">
+        <v>259.99</v>
+      </c>
+      <c r="L12" t="n">
+        <v>259.99</v>
+      </c>
+      <c r="M12" t="n">
+        <v>259.99</v>
+      </c>
+      <c r="N12" t="n">
+        <v>259.99</v>
+      </c>
+      <c r="O12" t="n">
+        <v>259.99</v>
+      </c>
+      <c r="P12" t="n">
+        <v>259.99</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>259.99</v>
+      </c>
+      <c r="R12" t="n">
+        <v>259.99</v>
+      </c>
+      <c r="S12" t="n">
+        <v>259.99</v>
+      </c>
+      <c r="T12" t="n">
+        <v>259.99</v>
+      </c>
+      <c r="U12" t="n">
+        <v>259.99</v>
+      </c>
+      <c r="V12" t="n">
+        <v>259.99</v>
+      </c>
+      <c r="W12" t="n">
+        <v>259.99</v>
+      </c>
+      <c r="X12" t="n">
+        <v>259.99</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>259.99</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>259.99</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>259.99</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>259.99</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>259.99</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>259.99</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>259.99</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>259.99</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>259.99</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>259.99</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>259.99</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>259.99</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>259.99</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>259.99</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>259.99</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>259.99</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>259.99</v>
+      </c>
+      <c r="AP12" t="inlineStr">
+        <is>
+          <t>此為空值</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>DDR4 4600 2x8GB RGB</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>On line</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>US Online Price</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>44627</v>
+      </c>
+      <c r="H13" s="2" t="n">
+        <v>44628</v>
+      </c>
+      <c r="I13" s="2" t="n">
+        <v>44629</v>
+      </c>
+      <c r="J13" s="2" t="n">
+        <v>44630</v>
+      </c>
+      <c r="K13" s="2" t="n">
+        <v>44631</v>
+      </c>
+      <c r="L13" s="2" t="n">
+        <v>44634</v>
+      </c>
+      <c r="M13" s="2" t="n">
+        <v>44635</v>
+      </c>
+      <c r="N13" s="2" t="n">
+        <v>44636</v>
+      </c>
+      <c r="O13" s="2" t="n">
+        <v>44637</v>
+      </c>
+      <c r="P13" s="2" t="n">
+        <v>44638</v>
+      </c>
+      <c r="Q13" s="2" t="n">
+        <v>44641</v>
+      </c>
+      <c r="R13" s="2" t="n">
+        <v>44642</v>
+      </c>
+      <c r="S13" s="2" t="n">
+        <v>44643</v>
+      </c>
+      <c r="T13" s="2" t="n">
+        <v>44644</v>
+      </c>
+      <c r="U13" s="2" t="n">
+        <v>44645</v>
+      </c>
+      <c r="V13" s="2" t="n">
+        <v>44649</v>
+      </c>
+      <c r="W13" s="2" t="n">
+        <v>44650</v>
+      </c>
+      <c r="X13" s="2" t="n">
+        <v>44652</v>
+      </c>
+      <c r="Y13" s="2" t="n">
+        <v>44657</v>
+      </c>
+      <c r="Z13" s="2" t="n">
+        <v>44658</v>
+      </c>
+      <c r="AA13" s="2" t="n">
+        <v>44659</v>
+      </c>
+      <c r="AB13" s="2" t="n">
+        <v>44662</v>
+      </c>
+      <c r="AC13" s="2" t="n">
+        <v>44663</v>
+      </c>
+      <c r="AD13" s="2" t="n">
+        <v>44664</v>
+      </c>
+      <c r="AE13" s="2" t="n">
+        <v>44665</v>
+      </c>
+      <c r="AF13" s="2" t="n">
+        <v>44666</v>
+      </c>
+      <c r="AG13" s="2" t="n">
+        <v>44670</v>
+      </c>
+      <c r="AH13" s="2" t="n">
+        <v>44671</v>
+      </c>
+      <c r="AI13" s="2" t="n">
+        <v>44672</v>
+      </c>
+      <c r="AJ13" s="2" t="n">
+        <v>44673</v>
+      </c>
+      <c r="AK13" s="2" t="n">
+        <v>44676</v>
+      </c>
+      <c r="AL13" s="2" t="n">
+        <v>44677</v>
+      </c>
+      <c r="AM13" s="2" t="n">
+        <v>44678</v>
+      </c>
+      <c r="AN13" s="2" t="n">
+        <v>44679</v>
+      </c>
+      <c r="AO13" s="2" t="n">
+        <v>44680</v>
+      </c>
+      <c r="AP13" t="inlineStr">
+        <is>
+          <t>此為空值</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Thermaltake-TOUGHRAM-Motherboard-Syncable-R016D408GX2-4600C19A/dp/B08XWQG1F8/ref=sr_1_2?crid=1WCLJPD9DV8ER&amp;dchild=1&amp;keywords=toughram+xg+rgb&amp;qid=1615957025&amp;sprefix=toughram+XG%2Caps%2C347&amp;sr=8-2</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Amanzon</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thermaltake TOUGHRAM XG </t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>19</v>
+      </c>
+      <c r="G14" t="n">
+        <v>248.03</v>
+      </c>
+      <c r="H14" t="n">
+        <v>244.91</v>
+      </c>
+      <c r="I14" t="n">
+        <v>244.58</v>
+      </c>
+      <c r="J14" t="n">
+        <v>245.56</v>
+      </c>
+      <c r="K14" t="n">
+        <v>248.72</v>
+      </c>
+      <c r="L14" t="n">
+        <v>247.9</v>
+      </c>
+      <c r="M14" t="n">
+        <v>245.96</v>
+      </c>
+      <c r="N14" t="n">
+        <v>246.47</v>
+      </c>
+      <c r="O14" t="n">
+        <v>246.79</v>
+      </c>
+      <c r="P14" t="n">
+        <v>246.79</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>250.16</v>
+      </c>
+      <c r="R14" t="n">
+        <v>248.7</v>
+      </c>
+      <c r="S14" t="n">
+        <v>242.3</v>
+      </c>
+      <c r="T14" t="n">
+        <v>242.82</v>
+      </c>
+      <c r="U14" t="n">
+        <v>242.53</v>
+      </c>
+      <c r="V14" t="n">
+        <v>225.99</v>
+      </c>
+      <c r="W14" t="n">
+        <v>225.99</v>
+      </c>
+      <c r="X14" t="n">
+        <v>245.55</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>241.46</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>239.94</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>239.76</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>239.2</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>239.53</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>239.36</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>238.14</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>233.64</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>233.64</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>231.3</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>231.42</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>231.42</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>232.41</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>231.81</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>229.75</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>228.34</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>228.34</v>
+      </c>
+      <c r="AP14" t="inlineStr">
+        <is>
+          <t>$216.55$216.55</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://www.amazon.com/dp/B089NCWYCF/ref=twister_B084RCGNWM?_encoding=UTF8&amp;th=1 </t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Amanzon</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Thermaltake TOUGHRAM RGB</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>19</v>
+      </c>
+      <c r="G15" t="n">
+        <v>215.99</v>
+      </c>
+      <c r="H15" t="n">
+        <v>215.99</v>
+      </c>
+      <c r="I15" t="n">
+        <v>215.99</v>
+      </c>
+      <c r="J15" t="n">
+        <v>215.99</v>
+      </c>
+      <c r="K15" t="n">
+        <v>215.99</v>
+      </c>
+      <c r="L15" t="n">
+        <v>215.99</v>
+      </c>
+      <c r="M15" t="n">
+        <v>215.99</v>
+      </c>
+      <c r="N15" t="n">
+        <v>215.99</v>
+      </c>
+      <c r="O15" t="n">
+        <v>215.99</v>
+      </c>
+      <c r="P15" t="n">
+        <v>215.99</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>215.99</v>
+      </c>
+      <c r="R15" t="n">
+        <v>215.99</v>
+      </c>
+      <c r="S15" t="n">
+        <v>215.99</v>
+      </c>
+      <c r="T15" t="n">
+        <v>215.99</v>
+      </c>
+      <c r="U15" t="n">
+        <v>215.99</v>
+      </c>
+      <c r="V15" t="n">
+        <v>215.99</v>
+      </c>
+      <c r="W15" t="n">
+        <v>215.99</v>
+      </c>
+      <c r="X15" t="n">
+        <v>215.99</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>215.99</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>215.99</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>215.99</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>215.99</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>215.99</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>215.99</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>215.99</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>215.99</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>215.99</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>215.99</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>215.99</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>215.99</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>215.99</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>215.99</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>215.99</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>215.99</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>215.99</v>
+      </c>
+      <c r="AP15" t="inlineStr">
+        <is>
+          <t>$215.99$215.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/g-skill-16gb-288-pin-ddr4-sdram/p/N82E16820232759?Description=G.SKILL%20TridentZ%20RGB%204600&amp;cm_re=G.SKILL_TridentZ%20RGB%204600-_-20-232-759-_-Product&amp;quicklink=true</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Newegg</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>GSKILL Trident Z RGB</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>16</v>
+      </c>
+      <c r="G16" t="n">
+        <v>194.95</v>
+      </c>
+      <c r="H16" t="n">
+        <v>194.95</v>
+      </c>
+      <c r="I16" t="n">
+        <v>181.64</v>
+      </c>
+      <c r="J16" t="n">
+        <v>182</v>
+      </c>
+      <c r="K16" t="n">
+        <v>182</v>
+      </c>
+      <c r="L16" t="n">
+        <v>190.95</v>
+      </c>
+      <c r="M16" t="n">
+        <v>190.95</v>
+      </c>
+      <c r="N16" t="n">
+        <v>325.15</v>
+      </c>
+      <c r="O16" t="n">
+        <v>325.15</v>
+      </c>
+      <c r="P16" t="n">
+        <v>328.45</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>328.45</v>
+      </c>
+      <c r="R16" t="n">
+        <v>328.45</v>
+      </c>
+      <c r="S16" t="n">
+        <v>328.45</v>
+      </c>
+      <c r="T16" t="n">
+        <v>328.45</v>
+      </c>
+      <c r="U16" t="n">
+        <v>328.45</v>
+      </c>
+      <c r="V16" t="n">
+        <v>328.45</v>
+      </c>
+      <c r="W16" t="n">
+        <v>331.4</v>
+      </c>
+      <c r="X16" t="n">
+        <v>331.4</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>321.85</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>321.85</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>321.85</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>321.85</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>318.96</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>318.96</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>318.96</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>318.96</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>326.87</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>326.87</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>326.87</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>326.87</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>326.87</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>326.87</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>323.88</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>323.88</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>317.9</v>
+      </c>
+      <c r="AP16" t="inlineStr">
+        <is>
+          <t>$317.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="inlineStr"/>
+      <c r="AA17" t="inlineStr"/>
+      <c r="AB17" t="inlineStr"/>
+      <c r="AC17" t="inlineStr"/>
+      <c r="AD17" t="inlineStr"/>
+      <c r="AE17" t="inlineStr"/>
+      <c r="AF17" t="inlineStr"/>
+      <c r="AG17" t="inlineStr"/>
+      <c r="AH17" t="inlineStr"/>
+      <c r="AI17" t="inlineStr"/>
+      <c r="AJ17" t="inlineStr"/>
+      <c r="AK17" t="inlineStr"/>
+      <c r="AL17" t="inlineStr"/>
+      <c r="AM17" t="inlineStr"/>
+      <c r="AN17" t="inlineStr"/>
+      <c r="AO17" t="inlineStr"/>
+      <c r="AP17" t="inlineStr">
+        <is>
+          <t>此為空值</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>DDR4 4000 2x8GB RGB</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>On line</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>De Online Price</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="n">
+        <v>44627</v>
+      </c>
+      <c r="H18" s="2" t="n">
+        <v>44628</v>
+      </c>
+      <c r="I18" s="2" t="n">
+        <v>44629</v>
+      </c>
+      <c r="J18" s="2" t="n">
+        <v>44630</v>
+      </c>
+      <c r="K18" s="2" t="n">
+        <v>44631</v>
+      </c>
+      <c r="L18" s="2" t="n">
+        <v>44634</v>
+      </c>
+      <c r="M18" s="2" t="n">
+        <v>44635</v>
+      </c>
+      <c r="N18" s="2" t="n">
+        <v>44636</v>
+      </c>
+      <c r="O18" s="2" t="n">
+        <v>44637</v>
+      </c>
+      <c r="P18" s="2" t="n">
+        <v>44638</v>
+      </c>
+      <c r="Q18" s="2" t="n">
+        <v>44641</v>
+      </c>
+      <c r="R18" s="2" t="n">
+        <v>44642</v>
+      </c>
+      <c r="S18" s="2" t="n">
+        <v>44643</v>
+      </c>
+      <c r="T18" s="2" t="n">
+        <v>44644</v>
+      </c>
+      <c r="U18" s="2" t="n">
+        <v>44645</v>
+      </c>
+      <c r="V18" s="2" t="n">
+        <v>44649</v>
+      </c>
+      <c r="W18" s="2" t="n">
+        <v>44650</v>
+      </c>
+      <c r="X18" s="2" t="n">
+        <v>44652</v>
+      </c>
+      <c r="Y18" s="2" t="n">
+        <v>44657</v>
+      </c>
+      <c r="Z18" s="2" t="n">
+        <v>44658</v>
+      </c>
+      <c r="AA18" s="2" t="n">
+        <v>44659</v>
+      </c>
+      <c r="AB18" s="2" t="n">
+        <v>44662</v>
+      </c>
+      <c r="AC18" s="2" t="n">
+        <v>44663</v>
+      </c>
+      <c r="AD18" s="2" t="n">
+        <v>44664</v>
+      </c>
+      <c r="AE18" s="2" t="n">
+        <v>44665</v>
+      </c>
+      <c r="AF18" s="2" t="n">
+        <v>44666</v>
+      </c>
+      <c r="AG18" s="2" t="n">
+        <v>44670</v>
+      </c>
+      <c r="AH18" s="2" t="n">
+        <v>44671</v>
+      </c>
+      <c r="AI18" s="2" t="n">
+        <v>44672</v>
+      </c>
+      <c r="AJ18" s="2" t="n">
+        <v>44673</v>
+      </c>
+      <c r="AK18" s="2" t="n">
+        <v>44676</v>
+      </c>
+      <c r="AL18" s="2" t="n">
+        <v>44677</v>
+      </c>
+      <c r="AM18" s="2" t="n">
+        <v>44678</v>
+      </c>
+      <c r="AN18" s="2" t="n">
+        <v>44679</v>
+      </c>
+      <c r="AO18" s="2" t="n">
+        <v>44680</v>
+      </c>
+      <c r="AP18" t="inlineStr">
+        <is>
+          <t>此為空值</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>https://www.alternate.de/Thermaltake/DIMM-16-GB-DDR4-4000-Kit-Arbeitsspeicher/html/product/1731674</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>alternate</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thermaltake TOUGHRAM XG </t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>19</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>€ 99,90</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>€ 99,90</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>€ 99,90</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>€ 99,90</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>€ 99,90</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>€ 99,90</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>€ 99,90</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>€ 99,90</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>€ 99,90</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>€ 99,90</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>€ 99,90</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>€ 99,90</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>€ 99,90</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>€ 99,90</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>€ 99,90</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>€ 99,90</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>€ 99,90</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>€ 99,90</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>€ 99,90</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>€ 99,90</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>€ 99,90</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>€ 99,90</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>€ 142,90</t>
+        </is>
+      </c>
+      <c r="AD19" t="inlineStr">
+        <is>
+          <t>€ 142,90</t>
+        </is>
+      </c>
+      <c r="AE19" t="inlineStr">
+        <is>
+          <t>€ 142,90</t>
+        </is>
+      </c>
+      <c r="AF19" t="inlineStr">
+        <is>
+          <t>€ 142,90</t>
+        </is>
+      </c>
+      <c r="AG19" t="inlineStr">
+        <is>
+          <t>€ 142,90</t>
+        </is>
+      </c>
+      <c r="AH19" t="inlineStr">
+        <is>
+          <t>€ 142,90</t>
+        </is>
+      </c>
+      <c r="AI19" t="inlineStr">
+        <is>
+          <t>€ 142,90</t>
+        </is>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>€ 142,90</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>€ 142,90</t>
+        </is>
+      </c>
+      <c r="AL19" t="inlineStr">
+        <is>
+          <t>€ 142,90</t>
+        </is>
+      </c>
+      <c r="AM19" t="inlineStr">
+        <is>
+          <t>€ 142,90</t>
+        </is>
+      </c>
+      <c r="AN19" t="inlineStr">
+        <is>
+          <t>€ 142,90</t>
+        </is>
+      </c>
+      <c r="AO19" t="inlineStr">
+        <is>
+          <t>€ 142,90</t>
+        </is>
+      </c>
+      <c r="AP19" t="inlineStr">
+        <is>
+          <t>€ 139,90</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>https://www.alternate.de/Thermaltake/DIMM-16-GB-DDR4-4000-Kit-Arbeitsspeicher/html/product/1597602</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>alternate</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thermaltake TOUGHRAM RGB </t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>19</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>€ 155,90</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>€ 155,90</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>€ 155,90</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>€ 155,90</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>€ 155,90</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>€ 155,90</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>€ 155,90</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>€ 155,90</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>€ 155,90</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>€ 155,90</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>€ 155,90</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>€ 155,90</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>€ 152,90</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>€ 152,90</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>€ 152,90</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>€ 152,90</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>€ 152,90</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>€ 152,90</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>€ 152,90</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>€ 152,90</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>€ 152,90</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>€ 152,90</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>€ 152,90</t>
+        </is>
+      </c>
+      <c r="AD20" t="inlineStr">
+        <is>
+          <t>€ 152,90</t>
+        </is>
+      </c>
+      <c r="AE20" t="inlineStr">
+        <is>
+          <t>€ 152,90</t>
+        </is>
+      </c>
+      <c r="AF20" t="inlineStr">
+        <is>
+          <t>€ 152,90</t>
+        </is>
+      </c>
+      <c r="AG20" t="inlineStr">
+        <is>
+          <t>€ 152,90</t>
+        </is>
+      </c>
+      <c r="AH20" t="inlineStr">
+        <is>
+          <t>€ 152,90</t>
+        </is>
+      </c>
+      <c r="AI20" t="inlineStr">
+        <is>
+          <t>€ 152,90</t>
+        </is>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>€ 152,90</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>€ 152,90</t>
+        </is>
+      </c>
+      <c r="AL20" t="inlineStr">
+        <is>
+          <t>€ 140,90</t>
+        </is>
+      </c>
+      <c r="AM20" t="inlineStr">
+        <is>
+          <t>€ 140,90</t>
+        </is>
+      </c>
+      <c r="AN20" t="inlineStr">
+        <is>
+          <t>€ 140,90</t>
+        </is>
+      </c>
+      <c r="AO20" t="inlineStr">
+        <is>
+          <t>€ 140,90</t>
+        </is>
+      </c>
+      <c r="AP20" t="inlineStr">
+        <is>
+          <t>€ 136,90</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>https://www.amazon.de/Corsair-Vengeance-Enthusiast-LED-Beleuchtung-Speicherkit/dp/B07D1TT7RN/ref=sr_1_1?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=Corsair+Vengeance+Pro+RGB+4000&amp;qid=1613615018&amp;quartzVehicle=184-492&amp;replacementKeywords=corsair+vengeance+rgb+4000&amp;sr=8-1</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Amanzon</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Corsair Vengeance Pro RGB</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>19</v>
+      </c>
+      <c r="G21" t="n">
+        <v>131.9</v>
+      </c>
+      <c r="H21" t="n">
+        <v>131.9</v>
+      </c>
+      <c r="I21" t="n">
+        <v>131.9</v>
+      </c>
+      <c r="J21" t="n">
+        <v>132.9</v>
+      </c>
+      <c r="K21" t="n">
+        <v>132.9</v>
+      </c>
+      <c r="L21" t="n">
+        <v>132.9</v>
+      </c>
+      <c r="M21" t="n">
+        <v>132.9</v>
+      </c>
+      <c r="N21" t="n">
+        <v>132.9</v>
+      </c>
+      <c r="O21" t="n">
+        <v>131.9</v>
+      </c>
+      <c r="P21" t="n">
+        <v>131.9</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>131.9</v>
+      </c>
+      <c r="R21" t="n">
+        <v>131.9</v>
+      </c>
+      <c r="S21" t="n">
+        <v>131.9</v>
+      </c>
+      <c r="T21" t="n">
+        <v>131.9</v>
+      </c>
+      <c r="U21" t="n">
+        <v>131.9</v>
+      </c>
+      <c r="V21" t="n">
+        <v>131.9</v>
+      </c>
+      <c r="W21" t="n">
+        <v>131.9</v>
+      </c>
+      <c r="X21" t="n">
+        <v>131.9</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>131.9</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>132.9</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>132.9</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>132.9</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>132.9</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>132.9</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>133.9</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>133.9</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>133.9</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>133.9</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>134.9</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>158.08</v>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>€ 170,90</t>
+        </is>
+      </c>
+      <c r="AL21" t="n">
+        <v>134.9</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>134.9</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>134.9</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>135.9</v>
+      </c>
+      <c r="AP21" t="inlineStr">
+        <is>
+          <t>USD139.39USD139.39</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>https://www.alternate.de/Corsair/DIMM-16-GB-DDR4-4000-Kit-Arbeitsspeicher/html/product/1542671</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>alternate</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Corsair  Dominator Platinum RGB</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>19</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>€ 169,90</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>€ 171,90</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>€ 171,90</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>€ 170,90</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>€ 168,90</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>€ 169,90</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>€ 170,90</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>€ 169,90</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>€ 169,90</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>€ 169,90</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>€ 168,90</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>€ 168,90</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>€ 169,90</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>€ 169,90</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>€ 169,90</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>€ 170,90</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>€ 169,90</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>€ 167,90</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>€ 170,90</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>€ 170,90</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>€ 170,90</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>€ 171,90</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>€ 170,90</t>
+        </is>
+      </c>
+      <c r="AD22" t="inlineStr">
+        <is>
+          <t>€ 170,90</t>
+        </is>
+      </c>
+      <c r="AE22" t="inlineStr">
+        <is>
+          <t>€ 171,90</t>
+        </is>
+      </c>
+      <c r="AF22" t="inlineStr">
+        <is>
+          <t>€ 170,90</t>
+        </is>
+      </c>
+      <c r="AG22" t="inlineStr">
+        <is>
+          <t>€ 170,90</t>
+        </is>
+      </c>
+      <c r="AH22" t="n">
+        <v>172.9</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>134.9</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>134.9</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>134.9</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>172.9</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>173.9</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>174.9</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>176.9</v>
+      </c>
+      <c r="AP22" t="inlineStr">
+        <is>
+          <t>€ 176,90</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>https://www.alternate.de/G-Skill/DIMM-16-GB-DDR4-4000-Kit-Arbeitsspeicher/html/product/1584633</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>alternate</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GSKILL Trident Z RGB </t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>18</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>€ 131,90</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>€ 133,90</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>€ 133,90</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>€ 132,90</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>€ 130,90</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>€ 131,90</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>€ 132,90</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>€ 131,90</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>€ 131,90</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>€ 131,90</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>€ 130,90</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>€ 128,90</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>€ 129,90</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>€ 129,90</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>€ 129,90</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>€ 127,90</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>€ 126,90</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>€ 125,90</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>€ 127,90</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>€ 125,90</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>€ 125,90</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>€ 125,90</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>€ 125,90</t>
+        </is>
+      </c>
+      <c r="AD23" t="inlineStr">
+        <is>
+          <t>€ 125,90</t>
+        </is>
+      </c>
+      <c r="AE23" t="inlineStr">
+        <is>
+          <t>€ 125,90</t>
+        </is>
+      </c>
+      <c r="AF23" t="n">
+        <v>124.9</v>
+      </c>
+      <c r="AG23" t="inlineStr">
+        <is>
+          <t>€ 124,90</t>
+        </is>
+      </c>
+      <c r="AH23" t="inlineStr">
+        <is>
+          <t>€ 124,90</t>
+        </is>
+      </c>
+      <c r="AI23" t="inlineStr">
+        <is>
+          <t>€ 124,90</t>
+        </is>
+      </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>€ 124,90</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>€ 124,90</t>
+        </is>
+      </c>
+      <c r="AL23" t="inlineStr">
+        <is>
+          <t>€ 121,90</t>
+        </is>
+      </c>
+      <c r="AM23" t="n">
+        <v>122.9</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>122.9</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>124.9</v>
+      </c>
+      <c r="AP23" t="inlineStr">
+        <is>
+          <t>€ 121,90</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://www.alternate.de/G-Skill/DIMM-16-GB-DDR4-4000-Kit-Arbeitsspeicher/html/product/1584978 </t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>alternate</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>G.SKILL Trident Z Royal</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>18</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>€ 157,90</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>€ 159,90</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>€ 159,90</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>€ 158,90</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>€ 156,90</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>€ 157,90</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>€ 158,90</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>€ 157,90</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>€ 157,90</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>€ 157,90</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>€ 156,90</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>€ 154,90</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>€ 154,90</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>€ 154,90</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>€ 154,90</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>€ 153,90</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>€ 152,90</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>€ 151,90</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>€ 153,90</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>€ 151,90</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>€ 151,90</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>€ 152,90</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>€ 151,90</t>
+        </is>
+      </c>
+      <c r="AD24" t="inlineStr">
+        <is>
+          <t>€ 151,90</t>
+        </is>
+      </c>
+      <c r="AE24" t="inlineStr">
+        <is>
+          <t>€ 152,90</t>
+        </is>
+      </c>
+      <c r="AF24" t="inlineStr">
+        <is>
+          <t>€ 151,90</t>
+        </is>
+      </c>
+      <c r="AG24" t="inlineStr">
+        <is>
+          <t>€ 150,90</t>
+        </is>
+      </c>
+      <c r="AH24" t="inlineStr">
+        <is>
+          <t>€ 150,90</t>
+        </is>
+      </c>
+      <c r="AI24" t="inlineStr">
+        <is>
+          <t>€ 150,90</t>
+        </is>
+      </c>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>€ 150,90</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>€ 150,90</t>
+        </is>
+      </c>
+      <c r="AL24" t="inlineStr">
+        <is>
+          <t>€ 147,90</t>
+        </is>
+      </c>
+      <c r="AM24" t="n">
+        <v>148.9</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>149.9</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>151.9</v>
+      </c>
+      <c r="AP24" t="inlineStr">
+        <is>
+          <t>此為空值</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>DDR4 4400 2x8GB RGB</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>On line</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>De Online Price</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="n">
+        <v>44627</v>
+      </c>
+      <c r="H25" s="2" t="n">
+        <v>44628</v>
+      </c>
+      <c r="I25" s="2" t="n">
+        <v>44629</v>
+      </c>
+      <c r="J25" s="2" t="n">
+        <v>44630</v>
+      </c>
+      <c r="K25" s="2" t="n">
+        <v>44631</v>
+      </c>
+      <c r="L25" s="2" t="n">
+        <v>44634</v>
+      </c>
+      <c r="M25" s="2" t="n">
+        <v>44635</v>
+      </c>
+      <c r="N25" s="2" t="n">
+        <v>44636</v>
+      </c>
+      <c r="O25" s="2" t="n">
+        <v>44637</v>
+      </c>
+      <c r="P25" s="2" t="n">
+        <v>44638</v>
+      </c>
+      <c r="Q25" s="2" t="n">
+        <v>44641</v>
+      </c>
+      <c r="R25" s="2" t="n">
+        <v>44642</v>
+      </c>
+      <c r="S25" s="2" t="n">
+        <v>44643</v>
+      </c>
+      <c r="T25" s="2" t="n">
+        <v>44644</v>
+      </c>
+      <c r="U25" s="2" t="n">
+        <v>44645</v>
+      </c>
+      <c r="V25" s="2" t="n">
+        <v>44649</v>
+      </c>
+      <c r="W25" s="2" t="n">
+        <v>44650</v>
+      </c>
+      <c r="X25" s="2" t="n">
+        <v>44652</v>
+      </c>
+      <c r="Y25" s="2" t="n">
+        <v>44657</v>
+      </c>
+      <c r="Z25" s="2" t="n">
+        <v>44658</v>
+      </c>
+      <c r="AA25" s="2" t="n">
+        <v>44659</v>
+      </c>
+      <c r="AB25" s="2" t="n">
+        <v>44662</v>
+      </c>
+      <c r="AC25" s="2" t="n">
+        <v>44663</v>
+      </c>
+      <c r="AD25" s="2" t="n">
+        <v>44664</v>
+      </c>
+      <c r="AE25" s="2" t="n">
+        <v>44665</v>
+      </c>
+      <c r="AF25" s="2" t="n">
+        <v>44666</v>
+      </c>
+      <c r="AG25" s="2" t="n">
+        <v>44670</v>
+      </c>
+      <c r="AH25" s="2" t="n">
+        <v>44671</v>
+      </c>
+      <c r="AI25" s="2" t="n">
+        <v>44672</v>
+      </c>
+      <c r="AJ25" s="2" t="n">
+        <v>44673</v>
+      </c>
+      <c r="AK25" s="2" t="n">
+        <v>44676</v>
+      </c>
+      <c r="AL25" s="2" t="n">
+        <v>44677</v>
+      </c>
+      <c r="AM25" s="2" t="n">
+        <v>44678</v>
+      </c>
+      <c r="AN25" s="2" t="n">
+        <v>44679</v>
+      </c>
+      <c r="AO25" s="2" t="n">
+        <v>44680</v>
+      </c>
+      <c r="AP25" t="inlineStr">
+        <is>
+          <t>此為空值</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>https://www.alternate.de/Thermaltake/DIMM-16-GB-DDR4-4400-Kit-Arbeitsspeicher/html/product/1731675</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>alternate</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Thermaltake TOUGHRAM XG</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>19</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>€ 142,90</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>€ 142,90</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>€ 142,90</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>€ 142,90</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>€ 142,90</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>€ 142,90</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>€ 142,90</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>€ 142,90</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>€ 142,90</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>€ 142,90</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>€ 142,90</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>€ 142,90</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>€ 139,90</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>€ 139,90</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>€ 139,90</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>€ 139,90</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>€ 139,90</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>€ 139,90</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>€ 139,90</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>€ 139,90</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>€ 139,90</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>€ 139,90</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>€ 139,90</t>
+        </is>
+      </c>
+      <c r="AD26" t="inlineStr">
+        <is>
+          <t>€ 139,90</t>
+        </is>
+      </c>
+      <c r="AE26" t="inlineStr">
+        <is>
+          <t>€ 139,90</t>
+        </is>
+      </c>
+      <c r="AF26" t="inlineStr">
+        <is>
+          <t>€ 139,90</t>
+        </is>
+      </c>
+      <c r="AG26" t="inlineStr">
+        <is>
+          <t>€ 139,90</t>
+        </is>
+      </c>
+      <c r="AH26" t="inlineStr">
+        <is>
+          <t>€ 139,90</t>
+        </is>
+      </c>
+      <c r="AI26" t="inlineStr">
+        <is>
+          <t>€ 139,90</t>
+        </is>
+      </c>
+      <c r="AJ26" t="inlineStr">
+        <is>
+          <t>€ 139,90</t>
+        </is>
+      </c>
+      <c r="AK26" t="inlineStr">
+        <is>
+          <t>€ 139,90</t>
+        </is>
+      </c>
+      <c r="AL26" t="inlineStr">
+        <is>
+          <t>€ 139,90</t>
+        </is>
+      </c>
+      <c r="AM26" t="inlineStr">
+        <is>
+          <t>€ 139,90</t>
+        </is>
+      </c>
+      <c r="AN26" t="inlineStr">
+        <is>
+          <t>€ 139,90</t>
+        </is>
+      </c>
+      <c r="AO26" t="inlineStr">
+        <is>
+          <t>€ 139,90</t>
+        </is>
+      </c>
+      <c r="AP26" t="inlineStr">
+        <is>
+          <t>€ 139,90</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>https://www.alternate.de/Thermaltake/DIMM-16-GB-DDR4-4400-Kit-Arbeitsspeicher/html/product/1597603</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>alternate</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Thermaltake TOUGHRAM RGB</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>19</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>€ 144,90</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>€ 144,90</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>€ 144,90</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>€ 144,90</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>€ 144,90</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>€ 144,90</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>€ 144,90</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>€ 144,90</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>€ 144,90</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>€ 144,90</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>€ 144,90</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>€ 144,90</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>€ 144,90</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>€ 144,90</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>€ 144,90</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>€ 144,90</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>€ 144,90</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>€ 144,90</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>€ 144,90</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>€ 144,90</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>€ 144,90</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>€ 144,90</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>€ 144,90</t>
+        </is>
+      </c>
+      <c r="AD27" t="inlineStr">
+        <is>
+          <t>€ 144,90</t>
+        </is>
+      </c>
+      <c r="AE27" t="inlineStr">
+        <is>
+          <t>€ 144,90</t>
+        </is>
+      </c>
+      <c r="AF27" t="inlineStr">
+        <is>
+          <t>€ 144,90</t>
+        </is>
+      </c>
+      <c r="AG27" t="inlineStr">
+        <is>
+          <t>€ 144,90</t>
+        </is>
+      </c>
+      <c r="AH27" t="inlineStr">
+        <is>
+          <t>€ 144,90</t>
+        </is>
+      </c>
+      <c r="AI27" t="inlineStr">
+        <is>
+          <t>€ 144,90</t>
+        </is>
+      </c>
+      <c r="AJ27" t="inlineStr">
+        <is>
+          <t>€ 144,90</t>
+        </is>
+      </c>
+      <c r="AK27" t="inlineStr">
+        <is>
+          <t>€ 144,90</t>
+        </is>
+      </c>
+      <c r="AL27" t="inlineStr">
+        <is>
+          <t>€ 144,90</t>
+        </is>
+      </c>
+      <c r="AM27" t="inlineStr">
+        <is>
+          <t>€ 144,90</t>
+        </is>
+      </c>
+      <c r="AN27" t="inlineStr">
+        <is>
+          <t>€ 144,90</t>
+        </is>
+      </c>
+      <c r="AO27" t="inlineStr">
+        <is>
+          <t>€ 144,90</t>
+        </is>
+      </c>
+      <c r="AP27" t="inlineStr">
+        <is>
+          <t>€ 124,90</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>https://www.alternate.de/G-Skill/DIMM-16-GB-DDR4-4400-Kit-Arbeitsspeicher/html/product/1475585</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>alternate</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GSKILL Trident Z RGB </t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>18</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>€ 253,00</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>€ 256,00</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>€ 256,00</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>€ 255,00</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>€ 251,00</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>€ 253,00</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>€ 255,00</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>€ 253,00</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>€ 253,00</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>€ 253,00</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>€ 251,00</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>€ 207,90</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>€ 208,90</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>€ 208,90</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>€ 208,90</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>€ 207,90</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>€ 206,90</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>€ 204,90</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>€ 207,90</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>€ 205,90</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>€ 205,90</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>€ 206,90</t>
+        </is>
+      </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>€ 205,90</t>
+        </is>
+      </c>
+      <c r="AD28" t="inlineStr">
+        <is>
+          <t>€ 205,90</t>
+        </is>
+      </c>
+      <c r="AE28" t="inlineStr">
+        <is>
+          <t>€ 206,90</t>
+        </is>
+      </c>
+      <c r="AF28" t="n">
+        <v>204.9</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>204.9</v>
+      </c>
+      <c r="AH28" t="inlineStr">
+        <is>
+          <t>€ 205,90</t>
+        </is>
+      </c>
+      <c r="AI28" t="inlineStr">
+        <is>
+          <t>€ 205,90</t>
+        </is>
+      </c>
+      <c r="AJ28" t="inlineStr">
+        <is>
+          <t>€ 205,90</t>
+        </is>
+      </c>
+      <c r="AK28" t="inlineStr">
+        <is>
+          <t>€ 205,90</t>
+        </is>
+      </c>
+      <c r="AL28" t="inlineStr">
+        <is>
+          <t>€ 202,90</t>
+        </is>
+      </c>
+      <c r="AM28" t="inlineStr">
+        <is>
+          <t>€ 202,90</t>
+        </is>
+      </c>
+      <c r="AN28" t="n">
+        <v>204.9</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>207.9</v>
+      </c>
+      <c r="AP28" t="inlineStr">
+        <is>
+          <t>€ 206,90</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>DDR4 4600 2x8GB RGB</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>On line</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>De Online Price</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="n">
+        <v>44627</v>
+      </c>
+      <c r="H29" s="2" t="n">
+        <v>44628</v>
+      </c>
+      <c r="I29" s="2" t="n">
+        <v>44629</v>
+      </c>
+      <c r="J29" s="2" t="n">
+        <v>44630</v>
+      </c>
+      <c r="K29" s="2" t="n">
+        <v>44631</v>
+      </c>
+      <c r="L29" s="2" t="n">
+        <v>44634</v>
+      </c>
+      <c r="M29" s="2" t="n">
+        <v>44635</v>
+      </c>
+      <c r="N29" s="2" t="n">
+        <v>44636</v>
+      </c>
+      <c r="O29" s="2" t="n">
+        <v>44637</v>
+      </c>
+      <c r="P29" s="2" t="n">
+        <v>44638</v>
+      </c>
+      <c r="Q29" s="2" t="n">
+        <v>44641</v>
+      </c>
+      <c r="R29" s="2" t="n">
+        <v>44642</v>
+      </c>
+      <c r="S29" s="2" t="n">
+        <v>44643</v>
+      </c>
+      <c r="T29" s="2" t="n">
+        <v>44644</v>
+      </c>
+      <c r="U29" s="2" t="n">
+        <v>44645</v>
+      </c>
+      <c r="V29" s="2" t="n">
+        <v>44649</v>
+      </c>
+      <c r="W29" s="2" t="n">
+        <v>44650</v>
+      </c>
+      <c r="X29" s="2" t="n">
+        <v>44652</v>
+      </c>
+      <c r="Y29" s="2" t="n">
+        <v>44657</v>
+      </c>
+      <c r="Z29" s="2" t="n">
+        <v>44658</v>
+      </c>
+      <c r="AA29" s="2" t="n">
+        <v>44659</v>
+      </c>
+      <c r="AB29" s="2" t="n">
+        <v>44662</v>
+      </c>
+      <c r="AC29" s="2" t="n">
+        <v>44663</v>
+      </c>
+      <c r="AD29" s="2" t="n">
+        <v>44664</v>
+      </c>
+      <c r="AE29" s="2" t="n">
+        <v>44665</v>
+      </c>
+      <c r="AF29" s="2" t="n">
+        <v>44666</v>
+      </c>
+      <c r="AG29" s="2" t="n">
+        <v>44670</v>
+      </c>
+      <c r="AH29" s="2" t="n">
+        <v>44671</v>
+      </c>
+      <c r="AI29" s="2" t="n">
+        <v>44672</v>
+      </c>
+      <c r="AJ29" s="2" t="n">
+        <v>44673</v>
+      </c>
+      <c r="AK29" s="2" t="n">
+        <v>44676</v>
+      </c>
+      <c r="AL29" s="2" t="n">
+        <v>44677</v>
+      </c>
+      <c r="AM29" s="2" t="n">
+        <v>44678</v>
+      </c>
+      <c r="AN29" s="2" t="n">
+        <v>44679</v>
+      </c>
+      <c r="AO29" s="2" t="n">
+        <v>44680</v>
+      </c>
+      <c r="AP29" t="inlineStr">
+        <is>
+          <t>此為空值</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>https://www.alternate.de/Thermaltake/DIMM-16-GB-DDR4-4600-Kit-Arbeitsspeicher/html/product/1731688</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>alternate</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thermaltake TOUGHRAM XG </t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>19</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>€ 181,90</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>€ 181,90</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>€ 181,90</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>€ 181,90</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>€ 181,90</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>€ 181,90</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>€ 181,90</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>€ 181,90</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>€ 181,90</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>€ 181,90</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>€ 181,90</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>€ 181,90</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>€ 177,90</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>€ 177,90</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>€ 177,90</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>€ 177,90</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>€ 177,90</t>
+        </is>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>€ 177,90</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>€ 177,90</t>
+        </is>
+      </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>€ 177,90</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>€ 177,90</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>€ 177,90</t>
+        </is>
+      </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>€ 177,90</t>
+        </is>
+      </c>
+      <c r="AD30" t="inlineStr">
+        <is>
+          <t>€ 177,90</t>
+        </is>
+      </c>
+      <c r="AE30" t="inlineStr">
+        <is>
+          <t>€ 177,90</t>
+        </is>
+      </c>
+      <c r="AF30" t="inlineStr">
+        <is>
+          <t>€ 177,90</t>
+        </is>
+      </c>
+      <c r="AG30" t="inlineStr">
+        <is>
+          <t>€ 177,90</t>
+        </is>
+      </c>
+      <c r="AH30" t="inlineStr">
+        <is>
+          <t>€ 177,90</t>
+        </is>
+      </c>
+      <c r="AI30" t="inlineStr">
+        <is>
+          <t>€ 177,90</t>
+        </is>
+      </c>
+      <c r="AJ30" t="inlineStr">
+        <is>
+          <t>€ 177,90</t>
+        </is>
+      </c>
+      <c r="AK30" t="inlineStr">
+        <is>
+          <t>€ 177,90</t>
+        </is>
+      </c>
+      <c r="AL30" t="inlineStr">
+        <is>
+          <t>€ 177,90</t>
+        </is>
+      </c>
+      <c r="AM30" t="inlineStr">
+        <is>
+          <t>€ 177,90</t>
+        </is>
+      </c>
+      <c r="AN30" t="inlineStr">
+        <is>
+          <t>€ 177,90</t>
+        </is>
+      </c>
+      <c r="AO30" t="inlineStr">
+        <is>
+          <t>€ 177,90</t>
+        </is>
+      </c>
+      <c r="AP30" t="inlineStr">
+        <is>
+          <t>€ 173,90</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://www.alternate.de/Thermaltake/DIMM-16-GB-DDR4-4600-Kit-Arbeitsspeicher/html/product/1647552 </t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>alternate</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Thermaltake TOUGHRAM RGB</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>19</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>€ 152,90</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>€ 152,90</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>€ 152,90</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>€ 152,90</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>€ 152,90</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>€ 152,90</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>€ 152,90</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>€ 152,90</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>€ 152,90</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>€ 152,90</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>€ 152,90</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>€ 152,90</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>€ 149,90</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>€ 149,90</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>€ 149,90</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>€ 149,90</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>€ 149,90</t>
+        </is>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>€ 149,90</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>€ 149,90</t>
+        </is>
+      </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>€ 149,90</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>€ 149,90</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>€ 149,90</t>
+        </is>
+      </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>€ 149,90</t>
+        </is>
+      </c>
+      <c r="AD31" t="inlineStr">
+        <is>
+          <t>€ 149,90</t>
+        </is>
+      </c>
+      <c r="AE31" t="inlineStr">
+        <is>
+          <t>€ 149,90</t>
+        </is>
+      </c>
+      <c r="AF31" t="inlineStr">
+        <is>
+          <t>€ 149,90</t>
+        </is>
+      </c>
+      <c r="AG31" t="inlineStr">
+        <is>
+          <t>€ 149,90</t>
+        </is>
+      </c>
+      <c r="AH31" t="inlineStr">
+        <is>
+          <t>€ 149,90</t>
+        </is>
+      </c>
+      <c r="AI31" t="inlineStr">
+        <is>
+          <t>€ 149,90</t>
+        </is>
+      </c>
+      <c r="AJ31" t="inlineStr">
+        <is>
+          <t>€ 149,90</t>
+        </is>
+      </c>
+      <c r="AK31" t="inlineStr">
+        <is>
+          <t>€ 149,90</t>
+        </is>
+      </c>
+      <c r="AL31" t="inlineStr">
+        <is>
+          <t>€ 149,90</t>
+        </is>
+      </c>
+      <c r="AM31" t="inlineStr">
+        <is>
+          <t>€ 149,90</t>
+        </is>
+      </c>
+      <c r="AN31" t="inlineStr">
+        <is>
+          <t>€ 149,90</t>
+        </is>
+      </c>
+      <c r="AO31" t="inlineStr">
+        <is>
+          <t>€ 149,90</t>
+        </is>
+      </c>
+      <c r="AP31" t="inlineStr">
+        <is>
+          <t>此為空值</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://www.alternate.de/G-Skill/D416GB-4600-18-Trident-Z-RGB-K2-GSK-Arbeitsspeicher/html/product/1475586 </t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>alternate</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GSKILL Trident Z RGB </t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>18</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>€ 315,00</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>€ 320,00</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>€ 320,00</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>€ 318,00</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>€ 314,00</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>€ 315,00</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>€ 318,00</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>€ 315,00</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>€ 315,00</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>€ 315,00</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>€ 314,00</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>€ 314,00</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>€ 315,00</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>€ 315,00</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>€ 315,00</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>€ 314,00</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>€ 313,00</t>
+        </is>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>€ 310,00</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>€ 314,00</t>
+        </is>
+      </c>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>€ 313,00</t>
+        </is>
+      </c>
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>€ 313,00</t>
+        </is>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>€ 315,00</t>
+        </is>
+      </c>
+      <c r="AC32" t="inlineStr">
+        <is>
+          <t>€ 313,00</t>
+        </is>
+      </c>
+      <c r="AD32" t="inlineStr">
+        <is>
+          <t>€ 313,00</t>
+        </is>
+      </c>
+      <c r="AE32" t="inlineStr">
+        <is>
+          <t>€ 315,00</t>
+        </is>
+      </c>
+      <c r="AF32" t="n">
+        <v>312</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>312</v>
+      </c>
+      <c r="AH32" t="inlineStr">
+        <is>
+          <t>€ 314,00</t>
+        </is>
+      </c>
+      <c r="AI32" t="inlineStr">
+        <is>
+          <t>€ 314,00</t>
+        </is>
+      </c>
+      <c r="AJ32" t="inlineStr">
+        <is>
+          <t>€ 314,00</t>
+        </is>
+      </c>
+      <c r="AK32" t="inlineStr">
+        <is>
+          <t>€ 314,00</t>
+        </is>
+      </c>
+      <c r="AL32" t="inlineStr">
+        <is>
+          <t>€ 312,00</t>
+        </is>
+      </c>
+      <c r="AM32" t="inlineStr">
+        <is>
+          <t>€ 313,00</t>
+        </is>
+      </c>
+      <c r="AN32" t="inlineStr">
+        <is>
+          <t>€ 314,00</t>
+        </is>
+      </c>
+      <c r="AO32" t="inlineStr">
+        <is>
+          <t>€ 319,00</t>
+        </is>
+      </c>
+      <c r="AP32" t="inlineStr">
+        <is>
+          <t>此為空值</t>
         </is>
       </c>
     </row>
